--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.657181</v>
+        <v>25.137615</v>
       </c>
       <c r="H2">
-        <v>23.314362</v>
+        <v>50.27523</v>
       </c>
       <c r="I2">
-        <v>0.1455665402801506</v>
+        <v>0.2035331462539072</v>
       </c>
       <c r="J2">
-        <v>0.1082974751579394</v>
+        <v>0.1510513100550334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3735055</v>
+        <v>1.143203</v>
       </c>
       <c r="N2">
-        <v>0.747011</v>
+        <v>2.286406</v>
       </c>
       <c r="O2">
-        <v>0.03399445429829198</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P2">
-        <v>0.02776558843856435</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q2">
-        <v>4.354021217995499</v>
+        <v>28.737396880845</v>
       </c>
       <c r="R2">
-        <v>17.416084871982</v>
+        <v>114.94958752338</v>
       </c>
       <c r="S2">
-        <v>0.004948455100914059</v>
+        <v>0.02772393213945796</v>
       </c>
       <c r="T2">
-        <v>0.003006943124170994</v>
+        <v>0.01623810288393558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.657181</v>
+        <v>25.137615</v>
       </c>
       <c r="H3">
-        <v>23.314362</v>
+        <v>50.27523</v>
       </c>
       <c r="I3">
-        <v>0.1455665402801506</v>
+        <v>0.2035331462539072</v>
       </c>
       <c r="J3">
-        <v>0.1082974751579394</v>
+        <v>0.1510513100550334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>13.449908</v>
       </c>
       <c r="O3">
-        <v>0.40804600630355</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P3">
-        <v>0.4999184885691834</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q3">
-        <v>52.262670663116</v>
+        <v>112.69953636314</v>
       </c>
       <c r="R3">
-        <v>313.576023978696</v>
+        <v>676.19721817884</v>
       </c>
       <c r="S3">
-        <v>0.0593978454127403</v>
+        <v>0.1087250286181173</v>
       </c>
       <c r="T3">
-        <v>0.05413991009681577</v>
+        <v>0.09552152587225028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.657181</v>
+        <v>25.137615</v>
       </c>
       <c r="H4">
-        <v>23.314362</v>
+        <v>50.27523</v>
       </c>
       <c r="I4">
-        <v>0.1455665402801506</v>
+        <v>0.2035331462539072</v>
       </c>
       <c r="J4">
-        <v>0.1082974751579394</v>
+        <v>0.1510513100550334</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,95 +685,95 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.684036499999999</v>
+        <v>2.7662325</v>
       </c>
       <c r="N4">
-        <v>11.368073</v>
+        <v>5.532465</v>
       </c>
       <c r="O4">
-        <v>0.5173303178375513</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P4">
-        <v>0.4225389401997501</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q4">
-        <v>66.25984229110649</v>
+        <v>69.53648758548751</v>
       </c>
       <c r="R4">
-        <v>265.039369164426</v>
+        <v>278.14595034195</v>
       </c>
       <c r="S4">
-        <v>0.07530598454964305</v>
+        <v>0.06708418549633191</v>
       </c>
       <c r="T4">
-        <v>0.0457599003795445</v>
+        <v>0.03929168129884748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.657181</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H5">
-        <v>23.314362</v>
+        <v>25.096798</v>
       </c>
       <c r="I5">
-        <v>0.1455665402801506</v>
+        <v>0.0677342203153689</v>
       </c>
       <c r="J5">
-        <v>0.1082974751579394</v>
+        <v>0.07540302085314261</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4142013333333334</v>
+        <v>1.143203</v>
       </c>
       <c r="N5">
-        <v>1.242604</v>
+        <v>2.286406</v>
       </c>
       <c r="O5">
-        <v>0.0376983693581262</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P5">
-        <v>0.04618624258024825</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q5">
-        <v>4.828419913108</v>
+        <v>9.563578254664668</v>
       </c>
       <c r="R5">
-        <v>28.970519478648</v>
+        <v>57.381469527988</v>
       </c>
       <c r="S5">
-        <v>0.005487621201665674</v>
+        <v>0.009226305209274151</v>
       </c>
       <c r="T5">
-        <v>0.005001853458473</v>
+        <v>0.008105868197546759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.657181</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H6">
-        <v>23.314362</v>
+        <v>25.096798</v>
       </c>
       <c r="I6">
-        <v>0.1455665402801506</v>
+        <v>0.0677342203153689</v>
       </c>
       <c r="J6">
-        <v>0.1082974751579394</v>
+        <v>0.07540302085314261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.032202</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N6">
-        <v>0.096606</v>
+        <v>13.449908</v>
       </c>
       <c r="O6">
-        <v>0.002930852202480549</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P6">
-        <v>0.003590740212253833</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q6">
-        <v>0.375384542562</v>
+        <v>37.50551379939822</v>
       </c>
       <c r="R6">
-        <v>2.252307255372</v>
+        <v>337.549624194584</v>
       </c>
       <c r="S6">
-        <v>0.0004266340151875529</v>
+        <v>0.0361828290760428</v>
       </c>
       <c r="T6">
-        <v>0.0003888680989351736</v>
+        <v>0.0476832117817788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>25.096798</v>
       </c>
       <c r="I7">
-        <v>0.1044636222362223</v>
+        <v>0.0677342203153689</v>
       </c>
       <c r="J7">
-        <v>0.1165770634405018</v>
+        <v>0.07540302085314261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3735055</v>
+        <v>2.7662325</v>
       </c>
       <c r="N7">
-        <v>0.747011</v>
+        <v>5.532465</v>
       </c>
       <c r="O7">
-        <v>0.03399445429829198</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P7">
-        <v>0.02776558843856435</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q7">
-        <v>3.124597361796333</v>
+        <v>23.141192757845</v>
       </c>
       <c r="R7">
-        <v>18.747584170778</v>
+        <v>138.84715654707</v>
       </c>
       <c r="S7">
-        <v>0.003551183831943297</v>
+        <v>0.02232508603005193</v>
       </c>
       <c r="T7">
-        <v>0.00323683076486538</v>
+        <v>0.01961394087381705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.365599333333334</v>
+        <v>22.35579033333333</v>
       </c>
       <c r="H8">
-        <v>25.096798</v>
+        <v>67.06737099999999</v>
       </c>
       <c r="I8">
-        <v>0.1044636222362223</v>
+        <v>0.1810093894562399</v>
       </c>
       <c r="J8">
-        <v>0.1165770634405018</v>
+        <v>0.2015030911145897</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.483302666666667</v>
+        <v>1.143203</v>
       </c>
       <c r="N8">
-        <v>13.449908</v>
+        <v>2.286406</v>
       </c>
       <c r="O8">
-        <v>0.40804600630355</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P8">
-        <v>0.4999184885691834</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q8">
-        <v>37.50551379939822</v>
+        <v>25.55720657643766</v>
       </c>
       <c r="R8">
-        <v>337.549624194584</v>
+        <v>153.343239458626</v>
       </c>
       <c r="S8">
-        <v>0.04262596385749323</v>
+        <v>0.02465589572142319</v>
       </c>
       <c r="T8">
-        <v>0.05827902935700947</v>
+        <v>0.02166169842391726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.365599333333334</v>
+        <v>22.35579033333333</v>
       </c>
       <c r="H9">
-        <v>25.096798</v>
+        <v>67.06737099999999</v>
       </c>
       <c r="I9">
-        <v>0.1044636222362223</v>
+        <v>0.1810093894562399</v>
       </c>
       <c r="J9">
-        <v>0.1165770634405018</v>
+        <v>0.2015030911145897</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.684036499999999</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N9">
-        <v>11.368073</v>
+        <v>13.449908</v>
       </c>
       <c r="O9">
-        <v>0.5173303178375513</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P9">
-        <v>0.4225389401997501</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q9">
-        <v>47.55037195504233</v>
+        <v>100.2277744168742</v>
       </c>
       <c r="R9">
-        <v>285.302231730254</v>
+        <v>902.0499697518679</v>
       </c>
       <c r="S9">
-        <v>0.05404219889392677</v>
+        <v>0.09669310090763571</v>
       </c>
       <c r="T9">
-        <v>0.04925834883774867</v>
+        <v>0.1274261224495702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.365599333333334</v>
+        <v>22.35579033333333</v>
       </c>
       <c r="H10">
-        <v>25.096798</v>
+        <v>67.06737099999999</v>
       </c>
       <c r="I10">
-        <v>0.1044636222362223</v>
+        <v>0.1810093894562399</v>
       </c>
       <c r="J10">
-        <v>0.1165770634405018</v>
+        <v>0.2015030911145897</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4142013333333334</v>
+        <v>2.7662325</v>
       </c>
       <c r="N10">
-        <v>1.242604</v>
+        <v>5.532465</v>
       </c>
       <c r="O10">
-        <v>0.0376983693581262</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P10">
-        <v>0.04618624258024825</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q10">
-        <v>3.465042397999111</v>
+        <v>61.8413137832525</v>
       </c>
       <c r="R10">
-        <v>31.185381581992</v>
+        <v>371.047882699515</v>
       </c>
       <c r="S10">
-        <v>0.003938108215548873</v>
+        <v>0.05966039282718099</v>
       </c>
       <c r="T10">
-        <v>0.005384256531356006</v>
+        <v>0.05241527024110215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.365599333333334</v>
+        <v>12.5456805</v>
       </c>
       <c r="H11">
-        <v>25.096798</v>
+        <v>25.091361</v>
       </c>
       <c r="I11">
-        <v>0.1044636222362223</v>
+        <v>0.1015793194406586</v>
       </c>
       <c r="J11">
-        <v>0.1165770634405018</v>
+        <v>0.07538668545352795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.032202</v>
+        <v>1.143203</v>
       </c>
       <c r="N11">
-        <v>0.096606</v>
+        <v>2.286406</v>
       </c>
       <c r="O11">
-        <v>0.002930852202480549</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P11">
-        <v>0.003590740212253833</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q11">
-        <v>0.269389029732</v>
+        <v>14.3422595846415</v>
       </c>
       <c r="R11">
-        <v>2.424501267588</v>
+        <v>57.369038338566</v>
       </c>
       <c r="S11">
-        <v>0.0003061674373101281</v>
+        <v>0.01383645961740288</v>
       </c>
       <c r="T11">
-        <v>0.000418597949522276</v>
+        <v>0.00810411213267386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.60996433333333</v>
+        <v>12.5456805</v>
       </c>
       <c r="H12">
-        <v>46.829893</v>
+        <v>25.091361</v>
       </c>
       <c r="I12">
-        <v>0.19492607191223</v>
+        <v>0.1015793194406586</v>
       </c>
       <c r="J12">
-        <v>0.2175293998530375</v>
+        <v>0.07538668545352795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3735055</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N12">
-        <v>0.747011</v>
+        <v>13.449908</v>
       </c>
       <c r="O12">
-        <v>0.03399445429829198</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P12">
-        <v>0.02776558843856435</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q12">
-        <v>5.830407533303832</v>
+        <v>56.246082840798</v>
       </c>
       <c r="R12">
-        <v>34.982445199823</v>
+        <v>337.476497044788</v>
       </c>
       <c r="S12">
-        <v>0.006626405443165879</v>
+        <v>0.05426248557773902</v>
       </c>
       <c r="T12">
-        <v>0.006039831789607339</v>
+        <v>0.0476728816343848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.60996433333333</v>
+        <v>12.5456805</v>
       </c>
       <c r="H13">
-        <v>46.829893</v>
+        <v>25.091361</v>
       </c>
       <c r="I13">
-        <v>0.19492607191223</v>
+        <v>0.1015793194406586</v>
       </c>
       <c r="J13">
-        <v>0.2175293998530375</v>
+        <v>0.07538668545352795</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.483302666666667</v>
+        <v>2.7662325</v>
       </c>
       <c r="N13">
-        <v>13.449908</v>
+        <v>5.532465</v>
       </c>
       <c r="O13">
-        <v>0.40804600630355</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P13">
-        <v>0.4999184885691834</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q13">
-        <v>69.98419472220489</v>
+        <v>34.70426913371625</v>
       </c>
       <c r="R13">
-        <v>629.857752499844</v>
+        <v>138.817076534865</v>
       </c>
       <c r="S13">
-        <v>0.07953880516822404</v>
+        <v>0.03348037424551669</v>
       </c>
       <c r="T13">
-        <v>0.108746968793892</v>
+        <v>0.01960969168646928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.60996433333333</v>
+        <v>42.911368</v>
       </c>
       <c r="H14">
-        <v>46.829893</v>
+        <v>128.734104</v>
       </c>
       <c r="I14">
-        <v>0.19492607191223</v>
+        <v>0.3474428954019398</v>
       </c>
       <c r="J14">
-        <v>0.2175293998530375</v>
+        <v>0.3867800317961929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.684036499999999</v>
+        <v>1.143203</v>
       </c>
       <c r="N14">
-        <v>11.368073</v>
+        <v>2.286406</v>
       </c>
       <c r="O14">
-        <v>0.5173303178375513</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P14">
-        <v>0.4225389401997501</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q14">
-        <v>88.72760703436482</v>
+        <v>49.05640463170401</v>
       </c>
       <c r="R14">
-        <v>532.3656422061889</v>
+        <v>294.338427790224</v>
       </c>
       <c r="S14">
-        <v>0.1008411667371793</v>
+        <v>0.0473263614882839</v>
       </c>
       <c r="T14">
-        <v>0.09191464207619014</v>
+        <v>0.04157907632492706</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.60996433333333</v>
+        <v>42.911368</v>
       </c>
       <c r="H15">
-        <v>46.829893</v>
+        <v>128.734104</v>
       </c>
       <c r="I15">
-        <v>0.19492607191223</v>
+        <v>0.3474428954019398</v>
       </c>
       <c r="J15">
-        <v>0.2175293998530375</v>
+        <v>0.3867800317961929</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4142013333333334</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N15">
-        <v>1.242604</v>
+        <v>13.449908</v>
       </c>
       <c r="O15">
-        <v>0.0376983693581262</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P15">
-        <v>0.04618624258024825</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q15">
-        <v>6.465668040152445</v>
+        <v>192.3846505847147</v>
       </c>
       <c r="R15">
-        <v>58.191012361372</v>
+        <v>1731.461855262432</v>
       </c>
       <c r="S15">
-        <v>0.007348395056475917</v>
+        <v>0.1855999351506722</v>
       </c>
       <c r="T15">
-        <v>0.01004686562994821</v>
+        <v>0.2445911842845266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.60996433333333</v>
+        <v>42.911368</v>
       </c>
       <c r="H16">
-        <v>46.829893</v>
+        <v>128.734104</v>
       </c>
       <c r="I16">
-        <v>0.19492607191223</v>
+        <v>0.3474428954019398</v>
       </c>
       <c r="J16">
-        <v>0.2175293998530375</v>
+        <v>0.3867800317961929</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.032202</v>
+        <v>2.7662325</v>
       </c>
       <c r="N16">
-        <v>0.096606</v>
+        <v>5.532465</v>
       </c>
       <c r="O16">
-        <v>0.002930852202480549</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P16">
-        <v>0.003590740212253833</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q16">
-        <v>0.502672071462</v>
+        <v>118.70282078106</v>
       </c>
       <c r="R16">
-        <v>4.524048643157999</v>
+        <v>712.21692468636</v>
       </c>
       <c r="S16">
-        <v>0.000571299507184841</v>
+        <v>0.1145165987629838</v>
       </c>
       <c r="T16">
-        <v>0.0007810915633997446</v>
+        <v>0.1006097711867392</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3064445</v>
+        <v>12.19019366666667</v>
       </c>
       <c r="H17">
-        <v>26.612889</v>
+        <v>36.570581</v>
       </c>
       <c r="I17">
-        <v>0.1661613634801449</v>
+        <v>0.09870102913188543</v>
       </c>
       <c r="J17">
-        <v>0.1236194533377538</v>
+        <v>0.1098758607275136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3735055</v>
+        <v>1.143203</v>
       </c>
       <c r="N17">
-        <v>0.747011</v>
+        <v>2.286406</v>
       </c>
       <c r="O17">
-        <v>0.03399445429829198</v>
+        <v>0.13621335222162</v>
       </c>
       <c r="P17">
-        <v>0.02776558843856435</v>
+        <v>0.1075005763142303</v>
       </c>
       <c r="Q17">
-        <v>4.97003020619475</v>
+        <v>13.93586597031433</v>
       </c>
       <c r="R17">
-        <v>19.880120824779</v>
+        <v>83.615195821886</v>
       </c>
       <c r="S17">
-        <v>0.005648564876967667</v>
+        <v>0.01344439804577788</v>
       </c>
       <c r="T17">
-        <v>0.003432366864376382</v>
+        <v>0.01181171835122982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3064445</v>
+        <v>12.19019366666667</v>
       </c>
       <c r="H18">
-        <v>26.612889</v>
+        <v>36.570581</v>
       </c>
       <c r="I18">
-        <v>0.1661613634801449</v>
+        <v>0.09870102913188543</v>
       </c>
       <c r="J18">
-        <v>0.1236194533377538</v>
+        <v>0.1098758607275136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>13.449908</v>
       </c>
       <c r="O18">
-        <v>0.40804600630355</v>
+        <v>0.5341883158553598</v>
       </c>
       <c r="P18">
-        <v>0.4999184885691834</v>
+        <v>0.6323780034575562</v>
       </c>
       <c r="Q18">
-        <v>59.656818110702</v>
+        <v>54.65232777294978</v>
       </c>
       <c r="R18">
-        <v>357.940908664212</v>
+        <v>491.8709499565481</v>
       </c>
       <c r="S18">
-        <v>0.06780148077002565</v>
+        <v>0.05272493652515268</v>
       </c>
       <c r="T18">
-        <v>0.06179965027035856</v>
+        <v>0.06948307743504555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3064445</v>
+        <v>12.19019366666667</v>
       </c>
       <c r="H19">
-        <v>26.612889</v>
+        <v>36.570581</v>
       </c>
       <c r="I19">
-        <v>0.1661613634801449</v>
+        <v>0.09870102913188543</v>
       </c>
       <c r="J19">
-        <v>0.1236194533377538</v>
+        <v>0.1098758607275136</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.684036499999999</v>
+        <v>2.7662325</v>
       </c>
       <c r="N19">
-        <v>11.368073</v>
+        <v>5.532465</v>
       </c>
       <c r="O19">
-        <v>0.5173303178375513</v>
+        <v>0.3295983319230202</v>
       </c>
       <c r="P19">
-        <v>0.4225389401997501</v>
+        <v>0.2601214202282134</v>
       </c>
       <c r="Q19">
-        <v>75.63431622322425</v>
+        <v>33.7209099020275</v>
       </c>
       <c r="R19">
-        <v>302.537264892897</v>
+        <v>202.325459412165</v>
       </c>
       <c r="S19">
-        <v>0.08596031098150425</v>
+        <v>0.03253169456095486</v>
       </c>
       <c r="T19">
-        <v>0.05223403280140695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>13.3064445</v>
-      </c>
-      <c r="H20">
-        <v>26.612889</v>
-      </c>
-      <c r="I20">
-        <v>0.1661613634801449</v>
-      </c>
-      <c r="J20">
-        <v>0.1236194533377538</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.4142013333333334</v>
-      </c>
-      <c r="N20">
-        <v>1.242604</v>
-      </c>
-      <c r="O20">
-        <v>0.0376983693581262</v>
-      </c>
-      <c r="P20">
-        <v>0.04618624258024825</v>
-      </c>
-      <c r="Q20">
-        <v>5.511547053826</v>
-      </c>
-      <c r="R20">
-        <v>33.069282322956</v>
-      </c>
-      <c r="S20">
-        <v>0.006264012453524364</v>
-      </c>
-      <c r="T20">
-        <v>0.005709518059495176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.3064445</v>
-      </c>
-      <c r="H21">
-        <v>26.612889</v>
-      </c>
-      <c r="I21">
-        <v>0.1661613634801449</v>
-      </c>
-      <c r="J21">
-        <v>0.1236194533377538</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.032202</v>
-      </c>
-      <c r="N21">
-        <v>0.096606</v>
-      </c>
-      <c r="O21">
-        <v>0.002930852202480549</v>
-      </c>
-      <c r="P21">
-        <v>0.003590740212253833</v>
-      </c>
-      <c r="Q21">
-        <v>0.428494125789</v>
-      </c>
-      <c r="R21">
-        <v>2.570964754734</v>
-      </c>
-      <c r="S21">
-        <v>0.0004869943981229536</v>
-      </c>
-      <c r="T21">
-        <v>0.0004438853421167088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>13.262289</v>
-      </c>
-      <c r="H22">
-        <v>39.786867</v>
-      </c>
-      <c r="I22">
-        <v>0.1656099811717343</v>
-      </c>
-      <c r="J22">
-        <v>0.1848138602525234</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.3735055</v>
-      </c>
-      <c r="N22">
-        <v>0.747011</v>
-      </c>
-      <c r="O22">
-        <v>0.03399445429829198</v>
-      </c>
-      <c r="P22">
-        <v>0.02776558843856435</v>
-      </c>
-      <c r="Q22">
-        <v>4.9535378840895</v>
-      </c>
-      <c r="R22">
-        <v>29.721227304537</v>
-      </c>
-      <c r="S22">
-        <v>0.005629820936283517</v>
-      </c>
-      <c r="T22">
-        <v>0.005131465581513911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>13.262289</v>
-      </c>
-      <c r="H23">
-        <v>39.786867</v>
-      </c>
-      <c r="I23">
-        <v>0.1656099811717343</v>
-      </c>
-      <c r="J23">
-        <v>0.1848138602525234</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.483302666666667</v>
-      </c>
-      <c r="N23">
-        <v>13.449908</v>
-      </c>
-      <c r="O23">
-        <v>0.40804600630355</v>
-      </c>
-      <c r="P23">
-        <v>0.4999184885691834</v>
-      </c>
-      <c r="Q23">
-        <v>59.45885563980401</v>
-      </c>
-      <c r="R23">
-        <v>535.129700758236</v>
-      </c>
-      <c r="S23">
-        <v>0.06757649142113228</v>
-      </c>
-      <c r="T23">
-        <v>0.09239186568407776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>13.262289</v>
-      </c>
-      <c r="H24">
-        <v>39.786867</v>
-      </c>
-      <c r="I24">
-        <v>0.1656099811717343</v>
-      </c>
-      <c r="J24">
-        <v>0.1848138602525234</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.684036499999999</v>
-      </c>
-      <c r="N24">
-        <v>11.368073</v>
-      </c>
-      <c r="O24">
-        <v>0.5173303178375513</v>
-      </c>
-      <c r="P24">
-        <v>0.4225389401997501</v>
-      </c>
-      <c r="Q24">
-        <v>75.3833347495485</v>
-      </c>
-      <c r="R24">
-        <v>452.3000084972909</v>
-      </c>
-      <c r="S24">
-        <v>0.0856750641966442</v>
-      </c>
-      <c r="T24">
-        <v>0.07809105264532594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>13.262289</v>
-      </c>
-      <c r="H25">
-        <v>39.786867</v>
-      </c>
-      <c r="I25">
-        <v>0.1656099811717343</v>
-      </c>
-      <c r="J25">
-        <v>0.1848138602525234</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.4142013333333334</v>
-      </c>
-      <c r="N25">
-        <v>1.242604</v>
-      </c>
-      <c r="O25">
-        <v>0.0376983693581262</v>
-      </c>
-      <c r="P25">
-        <v>0.04618624258024825</v>
-      </c>
-      <c r="Q25">
-        <v>5.493257786852001</v>
-      </c>
-      <c r="R25">
-        <v>49.439320081668</v>
-      </c>
-      <c r="S25">
-        <v>0.006243226239604365</v>
-      </c>
-      <c r="T25">
-        <v>0.008535857781815143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>13.262289</v>
-      </c>
-      <c r="H26">
-        <v>39.786867</v>
-      </c>
-      <c r="I26">
-        <v>0.1656099811717343</v>
-      </c>
-      <c r="J26">
-        <v>0.1848138602525234</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.032202</v>
-      </c>
-      <c r="N26">
-        <v>0.096606</v>
-      </c>
-      <c r="O26">
-        <v>0.002930852202480549</v>
-      </c>
-      <c r="P26">
-        <v>0.003590740212253833</v>
-      </c>
-      <c r="Q26">
-        <v>0.4270722303780001</v>
-      </c>
-      <c r="R26">
-        <v>3.843650073402</v>
-      </c>
-      <c r="S26">
-        <v>0.0004853783780699396</v>
-      </c>
-      <c r="T26">
-        <v>0.000663618559790596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>17.87998133333333</v>
-      </c>
-      <c r="H27">
-        <v>53.639944</v>
-      </c>
-      <c r="I27">
-        <v>0.223272420919518</v>
-      </c>
-      <c r="J27">
-        <v>0.2491627479582441</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.3735055</v>
-      </c>
-      <c r="N27">
-        <v>0.747011</v>
-      </c>
-      <c r="O27">
-        <v>0.03399445429829198</v>
-      </c>
-      <c r="P27">
-        <v>0.02776558843856435</v>
-      </c>
-      <c r="Q27">
-        <v>6.678271367897334</v>
-      </c>
-      <c r="R27">
-        <v>40.069628207384</v>
-      </c>
-      <c r="S27">
-        <v>0.007590024109017566</v>
-      </c>
-      <c r="T27">
-        <v>0.006918150314030346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>17.87998133333333</v>
-      </c>
-      <c r="H28">
-        <v>53.639944</v>
-      </c>
-      <c r="I28">
-        <v>0.223272420919518</v>
-      </c>
-      <c r="J28">
-        <v>0.2491627479582441</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>4.483302666666667</v>
-      </c>
-      <c r="N28">
-        <v>13.449908</v>
-      </c>
-      <c r="O28">
-        <v>0.40804600630355</v>
-      </c>
-      <c r="P28">
-        <v>0.4999184885691834</v>
-      </c>
-      <c r="Q28">
-        <v>80.16136799168356</v>
-      </c>
-      <c r="R28">
-        <v>721.452311925152</v>
-      </c>
-      <c r="S28">
-        <v>0.09110541967393451</v>
-      </c>
-      <c r="T28">
-        <v>0.1245610643670298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>17.87998133333333</v>
-      </c>
-      <c r="H29">
-        <v>53.639944</v>
-      </c>
-      <c r="I29">
-        <v>0.223272420919518</v>
-      </c>
-      <c r="J29">
-        <v>0.2491627479582441</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5.684036499999999</v>
-      </c>
-      <c r="N29">
-        <v>11.368073</v>
-      </c>
-      <c r="O29">
-        <v>0.5173303178375513</v>
-      </c>
-      <c r="P29">
-        <v>0.4225389401997501</v>
-      </c>
-      <c r="Q29">
-        <v>101.6304665179853</v>
-      </c>
-      <c r="R29">
-        <v>609.782799107912</v>
-      </c>
-      <c r="S29">
-        <v>0.1155055924786538</v>
-      </c>
-      <c r="T29">
-        <v>0.1052809634595339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>17.87998133333333</v>
-      </c>
-      <c r="H30">
-        <v>53.639944</v>
-      </c>
-      <c r="I30">
-        <v>0.223272420919518</v>
-      </c>
-      <c r="J30">
-        <v>0.2491627479582441</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.4142013333333334</v>
-      </c>
-      <c r="N30">
-        <v>1.242604</v>
-      </c>
-      <c r="O30">
-        <v>0.0376983693581262</v>
-      </c>
-      <c r="P30">
-        <v>0.04618624258024825</v>
-      </c>
-      <c r="Q30">
-        <v>7.405912108241778</v>
-      </c>
-      <c r="R30">
-        <v>66.653208974176</v>
-      </c>
-      <c r="S30">
-        <v>0.008417006191307015</v>
-      </c>
-      <c r="T30">
-        <v>0.01150789111916072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>17.87998133333333</v>
-      </c>
-      <c r="H31">
-        <v>53.639944</v>
-      </c>
-      <c r="I31">
-        <v>0.223272420919518</v>
-      </c>
-      <c r="J31">
-        <v>0.2491627479582441</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.032202</v>
-      </c>
-      <c r="N31">
-        <v>0.096606</v>
-      </c>
-      <c r="O31">
-        <v>0.002930852202480549</v>
-      </c>
-      <c r="P31">
-        <v>0.003590740212253833</v>
-      </c>
-      <c r="Q31">
-        <v>0.5757711588960001</v>
-      </c>
-      <c r="R31">
-        <v>5.181940430064</v>
-      </c>
-      <c r="S31">
-        <v>0.0006543784666051335</v>
-      </c>
-      <c r="T31">
-        <v>0.0008946786984893336</v>
+        <v>0.02858106494123821</v>
       </c>
     </row>
   </sheetData>
